--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:36:41+00:00</t>
+    <t>2024-06-19T09:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T09:38:46+00:00</t>
+    <t>2024-07-01T12:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3633,7 +3633,7 @@
     <t>Task.input:temporaliteAccueil.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAcJDV_J264-ModeEtCentreDePriseEnCharge-MDPHcueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
     <t>Task.input:accueilSequentiel</t>
@@ -3704,7 +3704,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModePriseEnCharge-MDPH/FHIR/JDV_J264-ModePriseEnCharge-MDPH/</t>
+    <t>https://mos.esante.gouv.fr/NOS//FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -5120,7 +5120,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="123.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="139.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:36:06+00:00</t>
+    <t>2024-07-01T15:09:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:09:06+00:00</t>
+    <t>2024-07-01T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3633,7 +3633,7 @@
     <t>Task.input:temporaliteAccueil.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAcJDV_J264-ModeEtCentreDePriseEnCharge-MDPHcueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
     <t>Task.input:accueilSequentiel</t>
@@ -3704,7 +3704,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS//FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/</t>
+    <t>https://mos.esante.gouv.fr/NOS/FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -5120,7 +5120,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="139.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="123.12109375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:38:12+00:00</t>
+    <t>2024-07-01T15:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3704,7 +3704,7 @@
     <t>Task.input:modePriseCharge.value[x]</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH/FHIR/JDV_J264-ModeEtCentreDePriseEnCharge-MDPH</t>
   </si>
   <si>
     <t>Task.input:modePriseCharge.value[x].id</t>
@@ -5120,7 +5120,7 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="169.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="123.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="123.9296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:40:44+00:00</t>
+    <t>2024-07-02T08:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T08:49:24+00:00</t>
+    <t>2024-07-02T09:45:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Publication-402/ig/all-profiles.xlsx
+++ b/Publication-402/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T09:45:39+00:00</t>
+    <t>2024-07-02T13:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
